--- a/src/testFiles/RestApi.xlsx
+++ b/src/testFiles/RestApi.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\RestXUnitTests\src\testFiles\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\Repos\RestXUnitTests\src\testFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87EF2AA2-FF3C-4543-89FE-4391B9F99593}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FC5C050-1F3F-4968-94FC-18417A1AA5CE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1935" yWindow="1005" windowWidth="26130" windowHeight="13575" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="2" r:id="rId1"/>
@@ -28,10 +28,11 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
+    <author>Erich</author>
     <author>Erich Tinguely (WideNet Consulting)</author>
   </authors>
   <commentList>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{2E0451D0-A9DA-4C77-9356-38BA4B62CD7B}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{CF9A0D7B-55AB-40B3-B91B-402E90497C09}">
       <text>
         <r>
           <rPr>
@@ -41,11 +42,99 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>Just looking at beginning of string since the rest is temporary</t>
+          <t xml:space="preserve">This phase is used for pre-test setup
+</t>
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{4AF294CD-FB69-4F0B-8995-63F63F25611D}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">This is the URL to be used for pre-test setup
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FD00B86A-2015-493B-BB2A-F82DE3580965}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">JSON body to post if applicable
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{B008992F-FE4B-47B8-B97C-744CEC7B8F42}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Type of call; should be one of 'GetSkus', 'CreateOrUpdate', or 'Delete'</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{5185FEB4-FEF4-4E01-9E62-3D7C43FDAB33}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+This needs to be well-formed JSON. Items that are not in this JSON are ignored when compared.</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{A7DA75AB-0AC5-4BA8-9301-865BBB8C36E5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Any string that should not be found in the response</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{8415B50E-6FBF-4522-BFD7-84928833D3A1}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">The HTTP status to expect
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -60,7 +149,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="C2" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -75,12 +164,27 @@
         </r>
       </text>
     </comment>
+    <comment ref="I2" authorId="0" shapeId="0" xr:uid="{6C5A9023-121F-493C-AEA3-EC78171A7DF5}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This needs to be well-formed JSON. Items that are not in this JSON are ignored when compared.
+</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="121">
   <si>
     <t>testCase</t>
   </si>
@@ -104,9 +208,6 @@
   </si>
   <si>
     <t>CreateOrUpdate</t>
-  </si>
-  <si>
-    <t>GetSku</t>
   </si>
   <si>
     <t>Happy Get SKU</t>
@@ -305,13 +406,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve"> "Item": {
-  "description": "Testing SKU update",
-  "price": "1.50",
-  "sku": "SmokeTest1"
- }</t>
-  </si>
-  <si>
     <t>postBody</t>
   </si>
   <si>
@@ -443,101 +537,254 @@
     <t>Url</t>
   </si>
   <si>
-    <t>dev/skus/{id}</t>
+    <t>Use number instead of string</t>
+  </si>
+  <si>
+    <t>Post body (Non-read ops only)</t>
+  </si>
+  <si>
+    <t>Call type for third phase</t>
+  </si>
+  <si>
+    <t>Url for verification</t>
+  </si>
+  <si>
+    <t>Response JSON should contain</t>
+  </si>
+  <si>
+    <t>Response JSON should not contain</t>
+  </si>
+  <si>
+    <t>responseJsonBodyDoesNotContain</t>
+  </si>
+  <si>
+    <t>Delete this item when test finishes</t>
+  </si>
+  <si>
+    <t>deleteMe</t>
+  </si>
+  <si>
+    <t>dev/skus/SmokeTest1</t>
   </si>
   <si>
     <t>{
-    "sku":"berliner", 
+    "sku":"&lt;RND&gt;", 
+    "description": "Happy Path Create SKU", 
+    "price":"2.10"
+}</t>
+  </si>
+  <si>
+    <t>Missing SKU</t>
+  </si>
+  <si>
+    <t>Using Unicode for SKU, Description and Price</t>
+  </si>
+  <si>
+    <t>{
+    "sku":"稲妻", 
+    "description": "稲妻", 
+    "price":"稲妻"
+}</t>
+  </si>
+  <si>
+    <t>Use all empty strings</t>
+  </si>
+  <si>
+    <t>{
+    "sku":"", 
+    "description": "", 
+    "price":""
+}</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>Post with different SKU in URL</t>
+  </si>
+  <si>
+    <t>dev/skus/XXXX</t>
+  </si>
+  <si>
+    <t>Test Phase</t>
+  </si>
+  <si>
+    <t>Verification Phase</t>
+  </si>
+  <si>
+    <t>Pre-Test Phase</t>
+  </si>
+  <si>
+    <t>{
+    "sku":"&lt;RND&gt;", 
+    "description": "Use number instead of string", 
+    "price":2.20
+}</t>
+  </si>
+  <si>
+    <t>trash body</t>
+  </si>
+  <si>
+    <t>{
+   )*^*pw8qruw8w8fqpfwyW8effyapwe8fupfdxcvgan.erhvzhfdulzerukh.rdku
+}</t>
+  </si>
+  <si>
+    <t>Empty JSON</t>
+  </si>
+  <si>
+    <t>{
+}</t>
+  </si>
+  <si>
+    <t>{
+    "description": "Missing SKU", 
+    "price":"2.10"
+}</t>
+  </si>
+  <si>
+    <t>All decimals</t>
+  </si>
+  <si>
+    <t>{
+    "sku":456
+    "description":78.6, 
+    "price":667.0
+}</t>
+  </si>
+  <si>
+    <t>{
+    "sku":"&lt;RND&gt;", 
+    "description": "Happy Path Update SKU", 
+    "price":"3.10"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "sku":"&lt;RND&gt;", 
+    "description": "Happy Path Update SKU UPDATED", 
+    "price":"3.10"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "sku":"&lt;RND&gt;", 
+    "description": "non-parsable JSON", 
+    "price":"3.99"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "sku":"&lt;RND&gt;", ,
+   [] "description": "non-parsable JSON", 
+    "price":"3.99"
+}</t>
+  </si>
+  <si>
+    <t>{
+    "sku":"&lt;RND&gt;", 
+    "description": "Happy Delete", 
+    "price":"4.10"
+}</t>
+  </si>
+  <si>
+    <t>[{
+  "description": "Testing SKU update",
+  "price": "1.50",
+  "sku": "SmokeTest1"
+ }]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [{
+  "description": "稲妻",
+  "price": "稲妻",
+  "sku": "稲妻"
+ }]</t>
+  </si>
+  <si>
+    <t>403</t>
+  </si>
+  <si>
+    <t>400</t>
+  </si>
+  <si>
+    <t>[{
+  "description": "Happy Path Update SKU UPDATED",
+  "price": "3.10",
+  "sku": "&lt;RND&gt;"
+}]</t>
+  </si>
+  <si>
+    <t>{
+    "sku":"&lt;RND&gt;", 
     "description": "Update SKU Test", 
     "price":"3.99"
 }</t>
   </si>
   <si>
     <t>{
-    "sku":"berliner", 
+    "sku":"&lt;RND&gt;", 
     "description": "Update SKU Test", 
-    "price":"4.99"
+    "price":3.50
 }</t>
   </si>
   <si>
-    <t>Use number instead of string</t>
-  </si>
-  <si>
-    <t>Add non-string item</t>
-  </si>
-  <si>
-    <t>{
-    "sku":"berliner", 
-    "description": "Update SKU Test", 
-    "price":3.99
-}</t>
-  </si>
-  <si>
-    <t>non-parsable JSON</t>
-  </si>
-  <si>
-    <t>{
-    "sku":["berliner"][, ]
-    "description": "Update SKU Test", 
-    "price":3.99
-}</t>
-  </si>
-  <si>
-    <t>Post body (Non-read ops only)</t>
-  </si>
-  <si>
-    <t>Call type for third phase</t>
-  </si>
-  <si>
-    <t>Url for verification</t>
-  </si>
-  <si>
-    <t>Response JSON should contain</t>
-  </si>
-  <si>
-    <t>Response JSON should not contain</t>
-  </si>
-  <si>
-    <t>responseJsonBodyDoesNotContain</t>
-  </si>
-  <si>
-    <t>Delete this item when test finishes</t>
-  </si>
-  <si>
-    <t>deleteMe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  [
- {
+    <t>[ {
+  "description": "Happy Path Create SKU",
+  "price": "2.10",
+  "sku": "&lt;RND&gt;"
+ }]</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> [ {
   "description": "Testing SKU update",
   "price": "1.50",
   "sku": "SmokeTest1",
- },
- {
-  "description": "Jelly donut",
-  "price": "2.99",
-  "sku": "berliner",
- },
- {
-  "description": "First OgdenTest Item",
-  "price": "1.23",
-  "sku": "Ogdentest1",
- }
-]</t>
+ }]</t>
+  </si>
+  <si>
+    <t>Delete no sku</t>
+  </si>
+  <si>
+    <t>Change to non-string item</t>
   </si>
   <si>
     <t>{
-    "sku":"&lt;RND&gt;", 
+    "sku":"&lt;RND&gt;"
+}</t>
+  </si>
+  <si>
+    <t>Update without price or description</t>
+  </si>
+  <si>
+    <t>Update with non-parsable JSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">true </t>
+  </si>
+  <si>
+    <t>SKU larger than 255 chars</t>
+  </si>
+  <si>
+    <t>{
+    "sku":"01234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789", 
     "description": "Happy Path Create SKU", 
-    "price":"2.99"
+    "price":"2.10"
 }</t>
+  </si>
+  <si>
+    <t>[ {
+  "description": "Happy Path Create SKU",
+  "price": "2.10",
+  "sku": "01234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789012345678901234567890123456789"
+ }]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -631,6 +878,20 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="11">
@@ -769,32 +1030,17 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -812,33 +1058,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="4" borderId="4" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -855,6 +1085,33 @@
     <xf numFmtId="49" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="8" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Check Cell" xfId="2" builtinId="23"/>
@@ -1139,111 +1396,149 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B25"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="19.5703125" customWidth="1"/>
     <col min="2" max="2" width="91.42578125" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="21.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="20" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="20"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B5" s="6" t="s">
+      <c r="A5" s="6" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="308.25" x14ac:dyDescent="0.25">
+      <c r="B6" s="14" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="308.25" x14ac:dyDescent="0.25">
-      <c r="B6" s="19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="B8" s="6" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" x14ac:dyDescent="0.3">
       <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="22" t="s">
-        <v>65</v>
+      <c r="A10" s="17" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="34"/>
+    </row>
+    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="34"/>
+    </row>
+    <row r="17" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="15" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="8" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" s="11" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B15" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="10" t="s">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" s="11" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B20" s="13" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="34"/>
+    </row>
+    <row r="22" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="34" t="s">
+        <v>87</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" s="10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B24" s="11" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" s="13" t="s">
-        <v>36</v>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>88</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1254,22 +1549,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:P22"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="O31" sqref="O31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" customWidth="1"/>
-    <col min="2" max="2" width="23.85546875" customWidth="1"/>
-    <col min="3" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1"/>
+    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="2" max="2" width="42.85546875" customWidth="1"/>
+    <col min="3" max="3" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="21.85546875" style="28" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
     <col min="7" max="7" width="24.140625" customWidth="1"/>
-    <col min="8" max="8" width="34" style="39" customWidth="1"/>
-    <col min="9" max="9" width="40.140625" style="39" customWidth="1"/>
+    <col min="8" max="8" width="30.7109375" style="28" customWidth="1"/>
+    <col min="9" max="9" width="36.7109375" style="28" customWidth="1"/>
     <col min="10" max="10" width="29" customWidth="1"/>
     <col min="11" max="11" width="22.5703125" customWidth="1"/>
     <col min="12" max="12" width="17.28515625" customWidth="1"/>
@@ -1284,49 +1583,49 @@
         <v>2</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" s="35" t="s">
-        <v>54</v>
-      </c>
       <c r="F1" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" s="24" t="s">
         <v>69</v>
       </c>
-      <c r="H1" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="I1" s="35" t="s">
-        <v>68</v>
+      <c r="I1" s="24" t="s">
+        <v>66</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="M1" s="2" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="N1" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="P1" s="32" t="s">
-        <v>84</v>
+        <v>73</v>
+      </c>
+      <c r="P1" s="22" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="13.15" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
@@ -1337,598 +1636,935 @@
         <v>0</v>
       </c>
       <c r="C2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="G2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="I2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="L2" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="19" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C3" s="26"/>
+      <c r="D3" s="26"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="26"/>
+      <c r="H3" s="26"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+      <c r="K3" s="26"/>
+      <c r="L3" s="26"/>
+      <c r="M3" s="18"/>
+      <c r="N3" s="18"/>
+      <c r="O3" s="18"/>
+      <c r="P3" s="37"/>
+    </row>
+    <row r="4" spans="1:16" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="33"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+      <c r="P4" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="23"/>
+      <c r="I5" s="12" t="s">
+        <v>103</v>
+      </c>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12">
+        <v>200</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G6" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B8" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G8" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J8" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="40" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="K10" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="26"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="20"/>
+      <c r="P11" s="35"/>
+    </row>
+    <row r="12" spans="1:16" s="7" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I12" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" s="27"/>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="7" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="27"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I14" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="7" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="10"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>91</v>
+      </c>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="I16" s="12"/>
+      <c r="J16" s="12"/>
+      <c r="K16" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>85</v>
+      </c>
+      <c r="C17" s="27"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="27"/>
+      <c r="F17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="I17" s="12"/>
+      <c r="J17" s="12"/>
+      <c r="K17" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="12"/>
+      <c r="J18" s="12"/>
+      <c r="K18" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="27"/>
+      <c r="F19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="I19" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J19" s="12"/>
+      <c r="K19" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="I20" s="12"/>
+      <c r="J20" s="12"/>
+      <c r="K20" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21" s="12"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="20"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="20"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="35"/>
+    </row>
+    <row r="23" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="36" t="s">
-        <v>23</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H2" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="I2" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="O2" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="26" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="23" t="s">
+      <c r="C23" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="I23" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="J23" s="12"/>
+      <c r="K23" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B24" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" s="12"/>
+      <c r="J24" s="12"/>
+      <c r="K24" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+    </row>
+    <row r="25" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>116</v>
+      </c>
+      <c r="C25" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>100</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>101</v>
+      </c>
+      <c r="I25" s="12"/>
+      <c r="J25" s="12"/>
+      <c r="K25" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="F26" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26" s="12"/>
+      <c r="J26" s="12"/>
+      <c r="K26" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+    </row>
+    <row r="27" spans="1:16" s="21" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
-      <c r="N3" s="25"/>
-      <c r="O3" s="25"/>
-      <c r="P3" s="33"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G4" s="11" t="s">
+      <c r="B27" s="32" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="20"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20"/>
+      <c r="H27" s="20"/>
+      <c r="I27" s="20"/>
+      <c r="J27" s="20"/>
+      <c r="K27" s="20"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="20"/>
+      <c r="N27" s="20"/>
+      <c r="O27" s="20"/>
+      <c r="P27" s="35"/>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G28" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11" t="s">
+      <c r="H28" s="23"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="12"/>
-      <c r="M4" s="13"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="13"/>
-    </row>
-    <row r="5" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="L28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G5" s="16" t="s">
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C29" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D29" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" s="27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="G29" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="H29" s="23"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="M29" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17">
-        <v>200</v>
-      </c>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13"/>
-      <c r="N5" s="13"/>
-      <c r="O5" s="13"/>
-      <c r="P5" s="13"/>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G6" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K6" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13"/>
-      <c r="O6" s="13"/>
-      <c r="P6" s="13"/>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="K7" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13"/>
-      <c r="N7" s="13"/>
-      <c r="O7" s="13"/>
-      <c r="P7" s="13"/>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G8" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13"/>
-      <c r="O8" s="13"/>
-      <c r="P8" s="13"/>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="13"/>
-      <c r="P9" s="13"/>
-    </row>
-    <row r="10" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13"/>
-      <c r="O10" s="13"/>
-      <c r="P10" s="13"/>
-    </row>
-    <row r="11" spans="1:16" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>45</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="13"/>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13"/>
-      <c r="O11" s="13"/>
-      <c r="P11" s="13"/>
-    </row>
-    <row r="12" spans="1:16" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="37"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="28"/>
-      <c r="L12" s="28"/>
-      <c r="M12" s="28"/>
-      <c r="N12" s="28"/>
-      <c r="O12" s="28"/>
-    </row>
-    <row r="13" spans="1:16" s="7" customFormat="1" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="M13" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="N13" s="13"/>
-      <c r="O13" s="13"/>
-      <c r="P13" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="16"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13"/>
-      <c r="O14" s="13"/>
-      <c r="P14" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="34"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13"/>
-      <c r="O15" s="13"/>
-      <c r="P15" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G16" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13"/>
-      <c r="N16" s="13"/>
-      <c r="O16" s="13"/>
-      <c r="P16" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="28"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="28"/>
-      <c r="O17" s="28"/>
-    </row>
-    <row r="18" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G18" s="16"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13"/>
-      <c r="N18" s="13"/>
-      <c r="O18" s="13"/>
-      <c r="P18" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="7" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="38" t="s">
-        <v>71</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="H19" s="34" t="s">
-        <v>77</v>
-      </c>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13"/>
-      <c r="N19" s="13"/>
-      <c r="O19" s="13"/>
-      <c r="P19" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="38" t="s">
-        <v>75</v>
-      </c>
-      <c r="F20" s="11"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13"/>
-      <c r="O20" s="13"/>
-      <c r="P20" s="13" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="29" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="28"/>
-      <c r="K21" s="28"/>
-      <c r="L21" s="28"/>
-      <c r="M21" s="28"/>
-      <c r="N21" s="28"/>
-      <c r="O21" s="28"/>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A22" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F22" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="G22" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="M22" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="N22" s="13"/>
-      <c r="O22" s="13"/>
-      <c r="P22" s="13" t="s">
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10" t="s">
         <v>3</v>
       </c>
     </row>
